--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2122,7 +2122,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2122,7 +2119,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3912,10 +3909,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3939,13 +3936,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3953,13 +3950,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3993,7 +3990,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4063,13 +4060,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4077,10 +4074,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4103,13 +4100,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4160,7 +4157,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4195,10 +4192,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4227,7 +4224,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4280,7 +4277,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4315,10 +4312,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4341,19 +4338,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4402,7 +4399,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4423,10 +4420,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4437,10 +4434,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4463,13 +4460,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4520,7 +4517,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4555,10 +4552,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4587,7 +4584,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4640,7 +4637,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4675,10 +4672,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4704,65 +4701,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4783,10 +4780,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4797,10 +4794,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4823,16 +4820,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4882,7 +4879,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4903,10 +4900,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4917,10 +4914,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4946,65 +4943,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5025,10 +5022,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5039,10 +5036,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5065,19 +5062,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5126,7 +5123,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5147,10 +5144,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5161,10 +5158,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5187,19 +5184,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5248,7 +5245,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5269,10 +5266,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5283,10 +5280,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5309,19 +5306,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5370,7 +5367,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5391,10 +5388,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5405,13 +5402,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5445,7 +5442,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5455,7 +5452,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5515,13 +5512,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5529,13 +5526,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5569,7 +5566,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5579,7 +5576,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5639,13 +5636,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5653,13 +5650,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5693,7 +5690,7 @@
         <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5703,7 +5700,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5763,13 +5760,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5777,13 +5774,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -5817,7 +5814,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5827,7 +5824,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5887,13 +5884,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5901,14 +5898,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5930,16 +5927,16 @@
         <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5964,14 +5961,14 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5988,7 +5985,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>92</v>
@@ -6003,30 +6000,30 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6049,19 +6046,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6110,7 +6107,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6125,19 +6122,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6145,10 +6142,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6171,16 +6168,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6230,7 +6227,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6251,13 +6248,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6265,14 +6262,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6291,19 +6288,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6352,7 +6349,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6367,19 +6364,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6387,14 +6384,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6413,19 +6410,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6474,7 +6471,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6489,19 +6486,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6509,10 +6506,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6535,16 +6532,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6594,7 +6591,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6615,13 +6612,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6629,10 +6626,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6655,19 +6652,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6716,7 +6713,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6731,19 +6728,19 @@
         <v>170</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6751,10 +6748,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6777,19 +6774,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6838,7 +6835,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6847,7 +6844,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6856,27 +6853,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6902,16 +6899,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6936,14 +6933,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6969,7 +6966,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
@@ -6984,7 +6981,7 @@
         <v>106</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6995,14 +6992,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7024,16 +7021,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7058,14 +7055,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7082,7 +7079,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7100,27 +7097,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7143,19 +7140,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7204,7 +7201,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7225,10 +7222,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7239,10 +7236,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7268,13 +7265,13 @@
         <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7300,14 +7297,14 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7324,7 +7321,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7342,27 +7339,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7388,16 +7385,16 @@
         <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7422,14 +7419,14 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>436</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7446,7 +7443,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7467,10 +7464,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7481,10 +7478,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7507,16 +7504,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7566,7 +7563,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7584,27 +7581,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7627,16 +7624,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7686,7 +7683,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7704,27 +7701,27 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>456</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7747,19 +7744,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7808,7 +7805,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7820,19 +7817,19 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7843,10 +7840,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7869,13 +7866,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7926,7 +7923,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7961,10 +7958,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7993,7 +7990,7 @@
         <v>141</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>143</v>
@@ -8046,7 +8043,7 @@
         <v>146</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8081,14 +8078,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8110,10 +8107,10 @@
         <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -8168,7 +8165,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8203,10 +8200,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8229,16 +8226,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8288,7 +8285,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8297,22 +8294,22 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8323,10 +8320,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8349,16 +8346,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>484</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8408,7 +8405,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8417,22 +8414,22 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8443,10 +8440,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8472,16 +8469,16 @@
         <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8509,11 +8506,11 @@
         <v>119</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8530,7 +8527,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8548,13 +8545,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM53" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AN53" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8565,10 +8562,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8594,16 +8591,16 @@
         <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8628,14 +8625,14 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8652,7 +8649,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8670,13 +8667,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8687,10 +8684,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8713,19 +8710,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8774,7 +8771,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8786,19 +8783,19 @@
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8809,10 +8806,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8835,16 +8832,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8894,7 +8891,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8915,10 +8912,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8929,10 +8926,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8955,16 +8952,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9014,7 +9011,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9035,10 +9032,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9049,10 +9046,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9075,16 +9072,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9134,7 +9131,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9155,10 +9152,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9169,10 +9166,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9195,19 +9192,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9256,7 +9253,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9277,10 +9274,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9291,10 +9288,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9317,13 +9314,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9374,7 +9371,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9409,10 +9406,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9441,7 +9438,7 @@
         <v>141</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>143</v>
@@ -9494,7 +9491,7 @@
         <v>146</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9529,14 +9526,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9558,10 +9555,10 @@
         <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>143</v>
@@ -9616,7 +9613,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9651,10 +9648,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9680,16 +9677,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9714,14 +9711,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9738,7 +9735,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9756,16 +9753,16 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -9773,10 +9770,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9799,19 +9796,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="O64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9860,7 +9857,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9878,27 +9875,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>389</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9924,16 +9921,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="O65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9958,14 +9955,14 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9982,7 +9979,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9991,7 +9988,7 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10006,7 +10003,7 @@
         <v>106</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10017,14 +10014,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10046,16 +10043,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10080,14 +10077,14 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
       </c>
@@ -10104,7 +10101,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10122,27 +10119,27 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP66" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10168,16 +10165,16 @@
         <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="N67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O67" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10226,7 +10223,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10247,10 +10244,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="555">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3909,10 +3912,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3936,13 +3939,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3950,13 +3953,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3990,7 +3993,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4060,13 +4063,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4074,10 +4077,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4100,13 +4103,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4157,7 +4160,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4192,10 +4195,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4224,7 +4227,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4277,7 +4280,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4312,10 +4315,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4323,13 +4326,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4338,19 +4341,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4399,7 +4402,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4420,10 +4423,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4434,10 +4437,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4460,13 +4463,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4517,7 +4520,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4552,10 +4555,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4584,7 +4587,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4637,7 +4640,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4672,10 +4675,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4683,13 +4686,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4701,23 +4704,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4759,7 +4762,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4780,10 +4783,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4794,10 +4797,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4820,16 +4823,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4879,7 +4882,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4900,10 +4903,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4914,10 +4917,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4925,13 +4928,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4943,23 +4946,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5001,7 +5004,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5022,10 +5025,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5036,10 +5039,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5062,19 +5065,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5123,7 +5126,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5144,10 +5147,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5158,10 +5161,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5184,19 +5187,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5245,7 +5248,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5266,10 +5269,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5280,10 +5283,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5306,19 +5309,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5367,7 +5370,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5388,10 +5391,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5402,13 +5405,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5442,7 +5445,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5452,7 +5455,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5512,13 +5515,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5526,13 +5529,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5566,7 +5569,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5576,7 +5579,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5636,13 +5639,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5650,13 +5653,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5690,7 +5693,7 @@
         <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5700,7 +5703,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5760,13 +5763,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5774,13 +5777,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>82</v>
@@ -5814,7 +5817,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5824,7 +5827,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5884,13 +5887,13 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5898,14 +5901,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5927,16 +5930,16 @@
         <v>198</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5961,13 +5964,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -5985,7 +5988,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>92</v>
@@ -6000,30 +6003,30 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6046,19 +6049,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6107,7 +6110,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6122,19 +6125,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6142,10 +6145,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6168,16 +6171,16 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6227,7 +6230,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6248,13 +6251,13 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6262,14 +6265,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6288,19 +6291,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6349,7 +6352,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6364,19 +6367,19 @@
         <v>170</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6384,14 +6387,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6410,19 +6413,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6471,7 +6474,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6486,19 +6489,19 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6506,10 +6509,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6532,16 +6535,16 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6591,7 +6594,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6612,13 +6615,13 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6626,10 +6629,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6652,19 +6655,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6713,7 +6716,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6728,19 +6731,19 @@
         <v>170</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6748,10 +6751,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6774,19 +6777,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6835,7 +6838,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6844,7 +6847,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6853,27 +6856,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6899,16 +6902,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6933,13 +6936,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6957,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6966,7 +6969,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>105</v>
@@ -6981,7 +6984,7 @@
         <v>106</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6992,14 +6995,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7021,16 +7024,16 @@
         <v>198</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7055,13 +7058,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7079,7 +7082,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7097,27 +7100,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7140,19 +7143,19 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7201,7 +7204,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7222,10 +7225,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7236,10 +7239,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7265,13 +7268,13 @@
         <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7297,13 +7300,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7321,7 +7324,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7339,27 +7342,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7385,16 +7388,16 @@
         <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7419,13 +7422,13 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
@@ -7443,7 +7446,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7464,10 +7467,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7478,10 +7481,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7504,16 +7507,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7563,7 +7566,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7581,27 +7584,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7624,16 +7627,16 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7683,7 +7686,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7701,27 +7704,27 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7744,19 +7747,19 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7805,7 +7808,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7817,7 +7820,7 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7826,10 +7829,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7840,10 +7843,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7866,13 +7869,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7923,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7958,10 +7961,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7990,7 +7993,7 @@
         <v>141</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>143</v>
@@ -8043,7 +8046,7 @@
         <v>146</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8078,14 +8081,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8107,10 +8110,10 @@
         <v>140</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>143</v>
@@ -8165,7 +8168,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8200,10 +8203,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8226,16 +8229,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8285,7 +8288,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8294,10 +8297,10 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8306,10 +8309,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8320,10 +8323,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8346,16 +8349,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8405,7 +8408,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8414,10 +8417,10 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8426,10 +8429,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8440,10 +8443,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8469,16 +8472,16 @@
         <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8506,10 +8509,10 @@
         <v>119</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8527,7 +8530,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8545,13 +8548,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8562,10 +8565,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8591,16 +8594,16 @@
         <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8625,13 +8628,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8649,7 +8652,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8667,13 +8670,13 @@
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8684,10 +8687,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8710,19 +8713,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8771,7 +8774,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8783,7 +8786,7 @@
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8792,10 +8795,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8806,10 +8809,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8832,16 +8835,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8891,7 +8894,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8912,10 +8915,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8926,10 +8929,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8952,16 +8955,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9011,7 +9014,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9032,10 +9035,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9046,10 +9049,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9072,16 +9075,16 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9131,7 +9134,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9152,10 +9155,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9166,10 +9169,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9192,19 +9195,19 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9253,7 +9256,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9274,10 +9277,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9288,10 +9291,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9314,13 +9317,13 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9371,7 +9374,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9406,10 +9409,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9438,7 +9441,7 @@
         <v>141</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>143</v>
@@ -9491,7 +9494,7 @@
         <v>146</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9526,14 +9529,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9555,10 +9558,10 @@
         <v>140</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>143</v>
@@ -9613,7 +9616,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9648,10 +9651,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9677,16 +9680,16 @@
         <v>198</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9711,13 +9714,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9735,7 +9738,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>92</v>
@@ -9753,16 +9756,16 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>82</v>
@@ -9770,10 +9773,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9796,19 +9799,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9857,7 +9860,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9875,27 +9878,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9921,16 +9924,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9955,13 +9958,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -9979,7 +9982,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9988,7 +9991,7 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10003,7 +10006,7 @@
         <v>106</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10014,14 +10017,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10043,16 +10046,16 @@
         <v>198</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10077,13 +10080,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10101,7 +10104,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10119,27 +10122,27 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10165,16 +10168,16 @@
         <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10223,7 +10226,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10244,10 +10247,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
+++ b/output/StructureDefinition-cls-l3-serum-or-plasma.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
